--- a/assets/uploads/sample28.xlsx
+++ b/assets/uploads/sample28.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="lecturer" sheetId="1" r:id="rId1"/>
-    <sheet name="enrollment" sheetId="2" r:id="rId2"/>
+    <sheet name="professor" sheetId="3" r:id="rId2"/>
+    <sheet name="enrollment" sheetId="2" r:id="rId3"/>
+    <sheet name="activity_details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -109,6 +111,84 @@
   </si>
   <si>
     <t>20101a1111</t>
+  </si>
+  <si>
+    <t>professor_id</t>
+  </si>
+  <si>
+    <t>professor_firstname</t>
+  </si>
+  <si>
+    <t>professor_midname</t>
+  </si>
+  <si>
+    <t>professor_department</t>
+  </si>
+  <si>
+    <t>professor_email</t>
+  </si>
+  <si>
+    <t>professor_lastname</t>
+  </si>
+  <si>
+    <t>Juan Carlo</t>
+  </si>
+  <si>
+    <t>De Regla</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>jdvalencia</t>
+  </si>
+  <si>
+    <t>jdvalencia@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>jc</t>
+  </si>
+  <si>
+    <t>Angelo Markus</t>
+  </si>
+  <si>
+    <t>Buan</t>
+  </si>
+  <si>
+    <t>Zaguirre</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>abzaguirre@fit.edu.ph</t>
+  </si>
+  <si>
+    <t>abzaguirre</t>
+  </si>
+  <si>
+    <t>markus</t>
+  </si>
+  <si>
+    <t>activity_details_id</t>
+  </si>
+  <si>
+    <t>activity_details_name</t>
+  </si>
+  <si>
+    <t>activity_details_status</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>Seatwork</t>
+  </si>
+  <si>
+    <t>Quiz</t>
   </si>
 </sst>
 </file>
@@ -440,7 +520,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -563,6 +643,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>201111111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>201122222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -602,4 +788,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>